--- a/lib/quote_template.xlsx
+++ b/lib/quote_template.xlsx
@@ -288,7 +288,7 @@
     <numFmt numFmtId="165" formatCode="MMM\ D&quot;, &quot;YY"/>
     <numFmt numFmtId="166" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -357,13 +357,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="11"/>
       <color indexed="12"/>
@@ -375,6 +368,13 @@
       <u val="single"/>
       <sz val="9"/>
       <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -445,6 +445,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="18"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -753,7 +758,7 @@
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0">
       <alignment/>
       <protection/>
     </xf>
@@ -806,7 +811,7 @@
       <alignment horizontal="right"/>
       <protection/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection/>
     </xf>
@@ -814,15 +819,15 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection/>
     </xf>
@@ -830,11 +835,11 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="20" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection/>
     </xf>
@@ -846,15 +851,15 @@
       <alignment horizontal="right"/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="7" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="21" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="7" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection/>
     </xf>
@@ -950,11 +955,11 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment/>
       <protection/>
     </xf>
@@ -974,11 +979,11 @@
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment/>
       <protection/>
     </xf>
@@ -990,11 +995,11 @@
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="21" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="21" applyFont="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
@@ -1014,11 +1019,11 @@
       <alignment horizontal="right"/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="21" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="21" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="21" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="21" applyFont="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
@@ -1113,15 +1118,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>175506</xdr:colOff>
+      <xdr:colOff>192267</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>356071</xdr:rowOff>
+      <xdr:rowOff>349597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>741936</xdr:colOff>
+      <xdr:colOff>726263</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>148010</xdr:rowOff>
+      <xdr:rowOff>134466</xdr:rowOff>
     </xdr:to>
     <xdr:sp fLocksText="0">
       <xdr:nvSpPr>
@@ -1130,8 +1135,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2800350" y="352425"/>
-          <a:ext cx="2486025" cy="352425"/>
+          <a:off x="2781300" y="352425"/>
+          <a:ext cx="2543175" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -1140,7 +1145,7 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr lIns="91440" tIns="45720" rIns="91440" bIns="45720" upright="1"/>
+        <a:bodyPr lIns="91440" tIns="45720" rIns="91440" bIns="45720" vert="horz" anchor="t" anchorCtr="0" upright="1"/>
         <a:p/>
       </xdr:txBody>
     </xdr:sp>
@@ -1149,15 +1154,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9367</xdr:colOff>
+      <xdr:colOff>33524</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>319385</xdr:rowOff>
+      <xdr:rowOff>310753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>449331</xdr:colOff>
+      <xdr:colOff>448382</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>190574</xdr:rowOff>
+      <xdr:rowOff>182835</xdr:rowOff>
     </xdr:to>
     <xdr:sp fLocksText="0">
       <xdr:nvSpPr>
@@ -1166,8 +1171,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2638425" y="323850"/>
-          <a:ext cx="2352675" cy="419100"/>
+          <a:off x="2628900" y="314325"/>
+          <a:ext cx="2419350" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -1198,15 +1203,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>471301</xdr:colOff>
+      <xdr:colOff>472780</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>256803</xdr:rowOff>
+      <xdr:rowOff>248171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>418821</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15776</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>85130</xdr:rowOff>
+      <xdr:rowOff>72554</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1223,7 +1228,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="466725" y="257175"/>
+          <a:off x="476250" y="247650"/>
           <a:ext cx="2133600" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -1238,15 +1243,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>368964</xdr:colOff>
+      <xdr:colOff>375717</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>41002</xdr:rowOff>
+      <xdr:rowOff>32370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>214257</xdr:colOff>
+      <xdr:colOff>227149</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>121890</xdr:rowOff>
+      <xdr:rowOff>108347</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1263,8 +1268,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5705475" y="38100"/>
-          <a:ext cx="2352675" cy="638175"/>
+          <a:off x="5715000" y="28575"/>
+          <a:ext cx="2371725" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -1578,7 +1583,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="topLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1587,11 +1592,11 @@
     <col min="2" max="2" width="10.1428571428571" style="1"/>
     <col min="3" max="3" width="7.42857142857143" style="1"/>
     <col min="4" max="4" width="7.57142857142857" style="1"/>
-    <col min="5" max="5" width="6.71428571428571" style="1"/>
+    <col min="5" max="5" width="6.14285714285714" style="1"/>
     <col min="6" max="6" width="7.57142857142857" style="1"/>
-    <col min="7" max="7" width="9.42857142857143" style="1"/>
+    <col min="7" max="7" width="10.8571428571429" style="1"/>
     <col min="8" max="8" width="11.7142857142857" style="1"/>
-    <col min="9" max="9" width="11.8571428571429" style="1"/>
+    <col min="9" max="9" width="11.1428571428571" style="1"/>
     <col min="10" max="14" width="9.42857142857143" style="1"/>
     <col min="15" max="15" width="8.14285714285714" style="1"/>
     <col min="16" max="17" width="7.71428571428571" style="1"/>

--- a/lib/quote_template.xlsx
+++ b/lib/quote_template.xlsx
@@ -470,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -647,11 +647,11 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
+      <left>
+        <color indexed="0"/>
       </left>
-      <right>
-        <color indexed="0"/>
+      <right style="thin">
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -667,53 +667,11 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
+      <top>
+        <color indexed="0"/>
       </top>
       <bottom>
         <color indexed="0"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="0"/>
-      </right>
-      <top>
-        <color indexed="0"/>
-      </top>
-      <bottom>
-        <color indexed="0"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="0"/>
-      </top>
-      <bottom>
-        <color indexed="0"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="0"/>
-      </right>
-      <top>
-        <color indexed="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
       </bottom>
     </border>
     <border>
@@ -767,7 +725,7 @@
       <protection/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment/>
     </xf>
@@ -943,10 +901,6 @@
       <alignment horizontal="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment/>
       <protection/>
@@ -959,11 +913,7 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment/>
       <protection/>
     </xf>
@@ -983,12 +933,8 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
       <protection/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -999,11 +945,7 @@
       <alignment horizontal="right"/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="21" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="17" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="21" applyFont="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
@@ -1023,7 +965,7 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="21" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="21" applyFont="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
@@ -1582,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A21">
+      <selection pane="topLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2278,19 +2220,19 @@
       <c r="R33" s="9"/>
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45" t="s">
+      <c r="A34" s="44" t="s">
         <v>25</v>
       </c>
+      <c r="B34" s="44"/>
       <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="45" t="s">
+      <c r="D34" s="45"/>
+      <c r="E34" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="45"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="48"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -2302,19 +2244,19 @@
       <c r="R34" s="9"/>
     </row>
     <row r="35" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A35" s="49"/>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="51"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="54"/>
+      <c r="F35"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="52"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -2326,19 +2268,19 @@
       <c r="R35" s="9"/>
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1">
-      <c r="A36" s="55"/>
-      <c r="B36" s="56" t="s">
+      <c r="A36" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51" t="s">
+      <c r="B36" s="50"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="51"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="58"/>
+      <c r="F36"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="55"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -2350,19 +2292,19 @@
       <c r="R36" s="9"/>
     </row>
     <row r="37" spans="1:18" ht="15" customHeight="1">
-      <c r="A37" s="59"/>
-      <c r="B37" s="60" t="s">
+      <c r="A37" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61" t="s">
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="62"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="60"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -2374,15 +2316,15 @@
       <c r="R37" s="9"/>
     </row>
     <row r="38" spans="10:18" ht="15" customHeight="1">
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
     </row>
     <row r="39" ht="16.5" customHeight="1"/>
     <row r="42" ht="15" customHeight="1"/>
@@ -2438,7 +2380,7 @@
     <mergeCell ref="A33:E33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1" display="TBrewer@bigislandgroup.ca"/>
+    <hyperlink ref="A36" r:id="rId1" display="TBrewer@bigislandgroup.ca"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="1"/>

--- a/lib/quote_template.xlsx
+++ b/lib/quote_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="526" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId2"/>
@@ -288,7 +288,7 @@
     <numFmt numFmtId="165" formatCode="MMM\ D&quot;, &quot;YY"/>
     <numFmt numFmtId="166" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -445,11 +445,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="18"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -470,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -647,11 +642,11 @@
       </bottom>
     </border>
     <border>
-      <left>
-        <color indexed="0"/>
+      <left style="thin">
+        <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="8"/>
+      <right>
+        <color indexed="0"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -667,11 +662,53 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top>
-        <color indexed="0"/>
+      <top style="thin">
+        <color indexed="8"/>
       </top>
       <bottom>
         <color indexed="0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="0"/>
+      </right>
+      <top>
+        <color indexed="0"/>
+      </top>
+      <bottom>
+        <color indexed="0"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="0"/>
+      </top>
+      <bottom>
+        <color indexed="0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="0"/>
+      </right>
+      <top>
+        <color indexed="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
@@ -725,7 +762,7 @@
       <protection/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment/>
     </xf>
@@ -901,6 +938,10 @@
       <alignment horizontal="center"/>
       <protection/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment/>
       <protection/>
@@ -913,7 +954,11 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment/>
       <protection/>
     </xf>
@@ -933,11 +978,11 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection/>
     </xf>
@@ -945,11 +990,11 @@
       <alignment horizontal="right"/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="21" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="21" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="17" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment/>
       <protection/>
     </xf>
@@ -965,7 +1010,7 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="21" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="21" applyFont="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
@@ -1060,15 +1105,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>192267</xdr:colOff>
+      <xdr:colOff>207550</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>349597</xdr:rowOff>
+      <xdr:rowOff>340965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>726263</xdr:colOff>
+      <xdr:colOff>713203</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134466</xdr:rowOff>
+      <xdr:rowOff>120923</xdr:rowOff>
     </xdr:to>
     <xdr:sp fLocksText="0">
       <xdr:nvSpPr>
@@ -1077,8 +1122,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2781300" y="352425"/>
-          <a:ext cx="2543175" cy="333375"/>
+          <a:off x="2800350" y="342900"/>
+          <a:ext cx="2514600" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -1087,7 +1132,7 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr lIns="91440" tIns="45720" rIns="91440" bIns="45720" vert="horz" anchor="t" anchorCtr="0" upright="1"/>
+        <a:bodyPr lIns="91440" tIns="45720" rIns="91440" bIns="45720" upright="1"/>
         <a:p/>
       </xdr:txBody>
     </xdr:sp>
@@ -1096,15 +1141,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>33524</xdr:colOff>
+      <xdr:colOff>57187</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>310753</xdr:rowOff>
+      <xdr:rowOff>302121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>448382</xdr:colOff>
+      <xdr:colOff>449833</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>182835</xdr:rowOff>
+      <xdr:rowOff>174129</xdr:rowOff>
     </xdr:to>
     <xdr:sp fLocksText="0">
       <xdr:nvSpPr>
@@ -1113,8 +1158,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2628900" y="314325"/>
-          <a:ext cx="2419350" cy="419100"/>
+          <a:off x="2647950" y="304800"/>
+          <a:ext cx="2400300" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -1135,7 +1180,7 @@
               </a:solidFill>
             </a:rPr>
             <a:t>Urban Forestry
-www.ThatsABigTree.ca</a:t>
+www.BigTreeServices.ca</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1145,15 +1190,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>472780</xdr:colOff>
+      <xdr:colOff>474259</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>248171</xdr:rowOff>
+      <xdr:rowOff>239539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>15776</xdr:colOff>
+      <xdr:colOff>39439</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>72554</xdr:rowOff>
+      <xdr:rowOff>59978</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1170,8 +1215,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="247650"/>
-          <a:ext cx="2133600" cy="628650"/>
+          <a:off x="476250" y="238125"/>
+          <a:ext cx="2152650" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -1185,15 +1230,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>375717</xdr:colOff>
+      <xdr:colOff>381856</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>32370</xdr:rowOff>
+      <xdr:rowOff>23738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>227149</xdr:colOff>
+      <xdr:colOff>240041</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>108347</xdr:rowOff>
+      <xdr:rowOff>95771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1210,7 +1255,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5715000" y="28575"/>
+          <a:off x="5724525" y="19050"/>
           <a:ext cx="2371725" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -1524,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A21">
-      <selection pane="topLeft" activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2223,16 +2268,16 @@
       <c r="A34" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="44" t="s">
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -2244,19 +2289,18 @@
       <c r="R34" s="9"/>
     </row>
     <row r="35" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50" t="s">
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F35"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="52"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -2268,19 +2312,18 @@
       <c r="R35" s="9"/>
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49" t="s">
+      <c r="B36" s="52"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="F36"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="55"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="57"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -2292,19 +2335,19 @@
       <c r="R36" s="9"/>
     </row>
     <row r="37" spans="1:18" ht="15" customHeight="1">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57" t="s">
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="62"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -2316,15 +2359,15 @@
       <c r="R37" s="9"/>
     </row>
     <row r="38" spans="10:18" ht="15" customHeight="1">
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="61"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
     </row>
     <row r="39" ht="16.5" customHeight="1"/>
     <row r="42" ht="15" customHeight="1"/>

--- a/lib/quote_template.xlsx
+++ b/lib/quote_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Personal/bigtrees/lib/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robst\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155B0F88-3EF5-4670-9CF4-38123D0113C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="526"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="526" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
@@ -267,9 +268,6 @@
     <t xml:space="preserve">           Customer's Signature</t>
   </si>
   <si>
-    <t>Big Trees - Brampton, ON</t>
-  </si>
-  <si>
     <t>Intact Insurance</t>
   </si>
   <si>
@@ -304,16 +302,19 @@
 5. We cannot do a thorough cleanup of the small branches if the lawn is unkempt (ie. long, weeds, dog droppings) 
 6. Our work is physically demanding both on our bodies and equipment. Breakdowns and delays do occur from time to time. Please keep that in mind when it comes to scheduling. Often times we are running a little behind. Also, the weather plays a huge role in whether or not we can work but we do our best to keep you updated as our week progresses.</t>
   </si>
+  <si>
+    <t>Big Tree - Brampton, ON</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\ d&quot;, &quot;yy"/>
     <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -384,14 +385,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
       <color indexed="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -479,6 +472,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -711,7 +719,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -730,7 +738,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -748,39 +756,45 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -794,158 +808,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Excel Built-in Normal 1" xfId="3"/>
+    <cellStyle name="Excel Built-in Normal 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -968,7 +908,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 13"/>
+        <xdr:cNvPr id="2" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -997,25 +943,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57187</xdr:colOff>
+      <xdr:colOff>514387</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>302121</xdr:rowOff>
+      <xdr:rowOff>496738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>449833</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>174129</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>10873</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 14"/>
+        <xdr:cNvPr id="3" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2647950" y="304800"/>
-          <a:ext cx="2400300" cy="419100"/>
+          <a:off x="3467137" y="496738"/>
+          <a:ext cx="1590638" cy="561885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1026,19 +978,58 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vert="horz" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+        <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="b" anchorCtr="0">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" baseline="0">
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Urban Forestry
-www.BigTreeServices.ca</a:t>
+            <a:t>www.BigTreeServices.ca</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>43 Farmington Dr. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Brampton Ontario </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1048,19 +1039,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>474259</xdr:colOff>
+      <xdr:colOff>83734</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>239539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>39439</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>239464</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>59978</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 15"/>
+        <xdr:cNvPr id="4" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1073,8 +1070,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="238125"/>
-          <a:ext cx="2152650" cy="619125"/>
+          <a:off x="83734" y="239539"/>
+          <a:ext cx="2517930" cy="620539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1090,19 +1087,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>381856</xdr:colOff>
+      <xdr:colOff>58006</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>23738</xdr:rowOff>
+      <xdr:rowOff>33263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>240041</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>506741</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>95771</xdr:rowOff>
+      <xdr:rowOff>105296</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 19"/>
+        <xdr:cNvPr id="5" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1115,8 +1118,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5724525" y="19050"/>
-          <a:ext cx="2371725" cy="628650"/>
+          <a:off x="58006" y="8005688"/>
+          <a:ext cx="2220385" cy="614958"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1132,19 +1135,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>381856</xdr:colOff>
+      <xdr:colOff>86581</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>23738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>240041</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>535316</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>95771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 19"/>
+        <xdr:cNvPr id="6" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1157,8 +1166,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6439756" y="23738"/>
-          <a:ext cx="2550585" cy="618133"/>
+          <a:off x="86581" y="15806663"/>
+          <a:ext cx="2220385" cy="634008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1169,6 +1178,78 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504861</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>311693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="" fLocksText="0">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18C5B9C-EA50-4AAA-97E8-B7CFE7131125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457611" y="311693"/>
+          <a:ext cx="1619213" cy="307432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="b" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Big Tree</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1200" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1470,459 +1551,461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="6"/>
       <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="6"/>
       <c r="G6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="48"/>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="7"/>
       <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="55">
         <v>400184807</v>
       </c>
-      <c r="I7" s="48"/>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="55"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="50"/>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="47"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="10"/>
       <c r="G9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="52"/>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="I9" s="49"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="54"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
+      <c r="I10" s="51"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
       <c r="F20" s="11"/>
       <c r="G20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="13"/>
       <c r="F21" s="11"/>
       <c r="G21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="13"/>
       <c r="F22" s="11"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="13"/>
       <c r="F23" s="11"/>
       <c r="G23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11"/>
       <c r="G24" s="17"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="F26" s="62" t="s">
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="F26" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="F30" s="63" t="s">
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="F30" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="19"/>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="19"/>
     </row>
-    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-    </row>
-    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+    </row>
+    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="H34" s="23"/>
       <c r="I34" s="24"/>
     </row>
-    <row r="35" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="29"/>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="32"/>
       <c r="I36" s="33"/>
     </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
       <c r="H37" s="37"/>
       <c r="I37" s="38"/>
     </row>
-    <row r="38" spans="1:18" ht="43" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
+    <row r="38" spans="1:18" ht="42.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
       <c r="J38" s="39"/>
       <c r="K38" s="39"/>
       <c r="L38" s="39"/>
@@ -1933,409 +2016,409 @@
       <c r="Q38" s="39"/>
       <c r="R38" s="39"/>
     </row>
-    <row r="39" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="67" t="s">
+    <row r="40" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="44" t="s">
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-    </row>
-    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="44"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="44"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="44"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="44"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="44"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="44"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="44"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="44"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+    </row>
+    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="66"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="66"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="66"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="66"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="66"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="66"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="66"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="66"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="66"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="66"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="66"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="66"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="66"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="66"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="66"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="66"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="66"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="66"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="66"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="66"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="66"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="66"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="66"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="66"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="66"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="66"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="66"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="66"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="66"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="66"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="66"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="66"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="66"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="66"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="66"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="66"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="66"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2346,7 +2429,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2357,414 +2440,414 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" ht="45" x14ac:dyDescent="0.45">
-      <c r="A77" s="41"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-    </row>
-    <row r="78" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="44.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="43" t="s">
+      <c r="F78" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="65" t="s">
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B80" s="66"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="66"/>
-      <c r="H80" s="66"/>
-      <c r="I80" s="66"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="66"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="66"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="66"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="66"/>
-      <c r="B82" s="66"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="66"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="66"/>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="66"/>
-      <c r="B85" s="66"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="66"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="66"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="66"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="66"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="66"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="66"/>
-      <c r="B88" s="66"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="66"/>
-      <c r="H88" s="66"/>
-      <c r="I88" s="66"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="66"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="66"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="66"/>
-      <c r="B90" s="66"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="66"/>
-      <c r="I90" s="66"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="66"/>
-      <c r="B91" s="66"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="66"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="66"/>
-      <c r="B92" s="66"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="66"/>
-      <c r="H92" s="66"/>
-      <c r="I92" s="66"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="66"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="66"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="66"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="66"/>
-      <c r="I94" s="66"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="66"/>
-      <c r="B95" s="66"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="66"/>
-      <c r="B96" s="66"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="66"/>
-      <c r="I96" s="66"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="66"/>
-      <c r="B97" s="66"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="66"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="66"/>
-      <c r="B98" s="66"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="66"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="66"/>
-      <c r="B99" s="66"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="66"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="66"/>
-      <c r="B100" s="66"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="66"/>
-      <c r="H100" s="66"/>
-      <c r="I100" s="66"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="66"/>
-      <c r="B101" s="66"/>
-      <c r="C101" s="66"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="66"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="66"/>
-      <c r="B102" s="66"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="66"/>
-      <c r="H102" s="66"/>
-      <c r="I102" s="66"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="66"/>
-      <c r="B103" s="66"/>
-      <c r="C103" s="66"/>
-      <c r="D103" s="66"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="66"/>
-      <c r="B104" s="66"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="66"/>
-      <c r="H104" s="66"/>
-      <c r="I104" s="66"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="66"/>
-      <c r="B105" s="66"/>
-      <c r="C105" s="66"/>
-      <c r="D105" s="66"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="66"/>
-      <c r="H105" s="66"/>
-      <c r="I105" s="66"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="66"/>
-      <c r="B106" s="66"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="66"/>
-      <c r="H106" s="66"/>
-      <c r="I106" s="66"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="66"/>
-      <c r="B107" s="66"/>
-      <c r="C107" s="66"/>
-      <c r="D107" s="66"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="66"/>
-      <c r="G107" s="66"/>
-      <c r="H107" s="66"/>
-      <c r="I107" s="66"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="66"/>
-      <c r="B108" s="66"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="66"/>
-      <c r="H108" s="66"/>
-      <c r="I108" s="66"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="66"/>
-      <c r="B109" s="66"/>
-      <c r="C109" s="66"/>
-      <c r="D109" s="66"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="66"/>
-      <c r="H109" s="66"/>
-      <c r="I109" s="66"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="66"/>
-      <c r="B110" s="66"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="66"/>
-      <c r="G110" s="66"/>
-      <c r="H110" s="66"/>
-      <c r="I110" s="66"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="66"/>
-      <c r="B111" s="66"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="66"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="66"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="66"/>
-      <c r="B112" s="66"/>
-      <c r="C112" s="66"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="66"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="66"/>
-      <c r="I112" s="66"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="66"/>
-      <c r="B113" s="66"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="66"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="66"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="64"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="64"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="64"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="64"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="64"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="64"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="64"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="64"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="64"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="64"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="64"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="64"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="64"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="64"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="64"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="64"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="64"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="64"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="64"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="64"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="64"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="64"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="64"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="64"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="64"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="64"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="64"/>
+      <c r="F93" s="64"/>
+      <c r="G93" s="64"/>
+      <c r="H93" s="64"/>
+      <c r="I93" s="64"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="64"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="64"/>
+      <c r="I94" s="64"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="64"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="64"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="64"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="64"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="64"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="64"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="64"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="64"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="64"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
+      <c r="G98" s="64"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="64"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="64"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="64"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="64"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="64"/>
+      <c r="I100" s="64"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="64"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="64"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="64"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="64"/>
+      <c r="I102" s="64"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="64"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="64"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="64"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="64"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="64"/>
+      <c r="H104" s="64"/>
+      <c r="I104" s="64"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="64"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="64"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="64"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="64"/>
+      <c r="H106" s="64"/>
+      <c r="I106" s="64"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="64"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="64"/>
+      <c r="F107" s="64"/>
+      <c r="G107" s="64"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="64"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="64"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="64"/>
+      <c r="I108" s="64"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="64"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="64"/>
+      <c r="G109" s="64"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="64"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="64"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="64"/>
+      <c r="G110" s="64"/>
+      <c r="H110" s="64"/>
+      <c r="I110" s="64"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="64"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="64"/>
+      <c r="F111" s="64"/>
+      <c r="G111" s="64"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="64"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="64"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="64"/>
+      <c r="H112" s="64"/>
+      <c r="I112" s="64"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="64"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="64"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="64"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="64"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2775,39 +2858,32 @@
     <mergeCell ref="A79:I79"/>
     <mergeCell ref="A80:I113"/>
     <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A41:I74"/>
+    <mergeCell ref="F39:H39"/>
     <mergeCell ref="A21:D31"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="F26:I29"/>
     <mergeCell ref="F30:I30"/>
-    <mergeCell ref="H17:I17"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A41:I74"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A12:G12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F39:H39"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H12:I12"/>
@@ -2818,16 +2894,23 @@
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="A16:G16"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H17:I17"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A36" r:id="rId1"/>
+    <hyperlink ref="A36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.51" footer="0.51"/>
-  <pageSetup scale="93" fitToHeight="3" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup scale="93" fitToHeight="3" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>